--- a/tool/ExcelData/Generator.TestHarness/Configuration.xlsx
+++ b/tool/ExcelData/Generator.TestHarness/Configuration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGitRepo\NewDatask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGitRepo\NewDatask\Datask\tool\ExcelData\Generator.TestHarness\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="dbo.migration_history" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,8 @@
   "IsPrimaryKey": false,
   "IsIdentity": false,
   "IsNullable": false,
-  "IsForeignKey": false
+  "IsForeignKey": false,
+"IsAutoGenerated": true
 }</t>
         </r>
       </text>
@@ -686,7 +687,8 @@
   "IsPrimaryKey": false,
   "IsIdentity": false,
   "IsNullable": false,
-  "IsForeignKey": false
+  "IsForeignKey": false,
+"IsAutoGenerated":true
 }</t>
         </r>
       </text>
@@ -780,7 +782,8 @@
   "IsPrimaryKey": false,
   "IsIdentity": false,
   "IsNullable": false,
-  "IsForeignKey": false
+  "IsForeignKey": false,
+"IsAutoGenerated":true
 }</t>
         </r>
       </text>
@@ -937,7 +940,8 @@
   "IsPrimaryKey": false,
   "IsIdentity": false,
   "IsNullable": false,
-  "IsForeignKey": false
+  "IsForeignKey": false,
+"IsAutoGenerated":true
 }</t>
         </r>
       </text>
@@ -1083,7 +1087,8 @@
   "IsPrimaryKey": false,
   "IsIdentity": false,
   "IsNullable": false,
-  "IsForeignKey": false
+  "IsForeignKey": false,
+"IsAutoGenerated":true
 }</t>
         </r>
       </text>
@@ -2096,7 +2101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="973">
   <si>
     <t>Name</t>
   </si>
@@ -2233,9 +2238,6 @@
     <t>Abc</t>
   </si>
   <si>
-    <t>Prathima</t>
-  </si>
-  <si>
     <t>FR00100170</t>
   </si>
   <si>
@@ -5012,6 +5014,12 @@
   </si>
   <si>
     <t>Abssent</t>
+  </si>
+  <si>
+    <t>BCFD</t>
+  </si>
+  <si>
+    <t>HTGDS</t>
   </si>
 </sst>
 </file>
@@ -5128,7 +5136,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="dbo.migration_history" displayName="dbo.migration_history" ref="A1:A3" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="dbo.migration_history" displayName="dbo.migration_history" ref="A1:A4" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Name"/>
   </tableColumns>
@@ -5631,7 +5639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -5654,7 +5662,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -5693,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5701,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +5737,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5784,34 +5797,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="E2" s="2">
         <v>65670</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5819,34 +5832,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>872</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E3" s="2">
         <v>65670</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>874</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5854,34 +5867,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>876</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E4" s="2">
         <v>65670</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>878</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5889,34 +5902,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>880</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E5" s="2">
         <v>65670</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>882</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5924,32 +5937,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>884</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E6" s="2">
         <v>65670</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5957,34 +5970,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="E7" s="2">
         <v>65745</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>890</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5992,34 +6005,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>892</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E8" s="2">
         <v>65745</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>894</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6027,34 +6040,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>896</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E9" s="2">
         <v>65745</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>898</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6062,34 +6075,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E10" s="2">
         <v>65745</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>902</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6097,32 +6110,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>904</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E11" s="2">
         <v>65745</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6213,13 +6226,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>7</v>
@@ -6234,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6242,13 +6255,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
@@ -6263,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6271,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -6290,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6298,13 +6311,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -6319,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6327,13 +6340,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -6348,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6356,13 +6369,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -6377,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6385,10 +6398,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
@@ -6404,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6412,10 +6425,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -6431,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6439,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -6458,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6496,7 +6509,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6533,10 +6546,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6547,10 +6560,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6561,10 +6574,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6575,10 +6588,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -6604,7 +6617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6648,7 +6663,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6688,16 +6703,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="F2" s="2">
         <v>65670</v>
@@ -6708,16 +6723,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="F3" s="2">
         <v>65670</v>
@@ -6728,14 +6743,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F4" s="2">
         <v>65670</v>
@@ -6746,16 +6761,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>918</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F5" s="2">
         <v>65670</v>
@@ -6766,16 +6781,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="F6" s="2">
         <v>65670</v>
@@ -6786,16 +6801,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>925</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F7" s="2">
         <v>65745</v>
@@ -6806,14 +6821,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F8" s="2">
         <v>65745</v>
@@ -6824,14 +6839,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>930</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F9" s="2">
         <v>65745</v>
@@ -6842,14 +6857,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F10" s="2">
         <v>65745</v>
@@ -6860,14 +6875,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>934</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F11" s="2">
         <v>65745</v>
@@ -7179,7 +7194,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7261,16 +7278,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>935</v>
+      </c>
+      <c r="E2" t="s">
         <v>936</v>
-      </c>
-      <c r="E2" t="s">
-        <v>937</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -7281,16 +7298,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -7301,16 +7318,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -7321,16 +7338,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -7341,16 +7358,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -7361,16 +7378,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -7381,16 +7398,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7401,16 +7418,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7421,16 +7438,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -7441,16 +7458,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -7461,16 +7478,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -7509,7 +7526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
@@ -7547,7 +7564,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>1</v>
@@ -7558,10 +7575,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>950</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7569,10 +7586,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>952</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7580,10 +7597,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>953</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>954</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7591,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>1</v>
@@ -7602,7 +7619,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>0</v>
@@ -7613,10 +7630,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>957</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>958</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7624,7 +7641,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>0</v>
@@ -7635,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>0</v>
@@ -7646,7 +7663,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>0</v>
@@ -7657,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C13" s="5" t="b">
         <v>0</v>
@@ -7668,10 +7685,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7679,10 +7696,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>964</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7690,10 +7707,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7701,7 +7718,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C17" s="5" t="b">
         <v>0</v>
@@ -7712,7 +7729,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -7723,10 +7740,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>969</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -7774,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7782,7 +7799,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7790,7 +7807,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7853,10 +7870,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -7945,10 +7962,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7962,10 +7979,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7979,10 +7996,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8049,10 +8066,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8063,10 +8080,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8077,10 +8094,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -8091,10 +8108,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8105,10 +8122,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8119,10 +8136,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
         <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -8133,10 +8150,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
         <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8147,10 +8164,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -8161,10 +8178,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -8236,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8253,7 +8270,7 @@
         <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8270,7 +8287,7 @@
         <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -8287,7 +8304,7 @@
         <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -8304,7 +8321,7 @@
         <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -8321,7 +8338,7 @@
         <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -8338,7 +8355,7 @@
         <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -8355,7 +8372,7 @@
         <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -8372,7 +8389,7 @@
         <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -8389,7 +8406,7 @@
         <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -8406,7 +8423,7 @@
         <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -8423,7 +8440,7 @@
         <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -8440,7 +8457,7 @@
         <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -8457,7 +8474,7 @@
         <v>295</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -8474,7 +8491,7 @@
         <v>331</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -8491,7 +8508,7 @@
         <v>348</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -8508,7 +8525,7 @@
         <v>358</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -8525,7 +8542,7 @@
         <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -8542,7 +8559,7 @@
         <v>370</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -8559,7 +8576,7 @@
         <v>391</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -8576,7 +8593,7 @@
         <v>414</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -8593,7 +8610,7 @@
         <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -8610,7 +8627,7 @@
         <v>438</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -8627,7 +8644,7 @@
         <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -8644,7 +8661,7 @@
         <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -8661,7 +8678,7 @@
         <v>468</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -8678,7 +8695,7 @@
         <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -8695,7 +8712,7 @@
         <v>497</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -8712,7 +8729,7 @@
         <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -8729,7 +8746,7 @@
         <v>511</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -8746,7 +8763,7 @@
         <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -8763,7 +8780,7 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -8780,7 +8797,7 @@
         <v>821</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -8797,7 +8814,7 @@
         <v>830</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -8814,7 +8831,7 @@
         <v>849</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -8831,7 +8848,7 @@
         <v>870</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -8848,7 +8865,7 @@
         <v>884</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -8865,7 +8882,7 @@
         <v>894</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -8882,7 +8899,7 @@
         <v>904</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -8899,7 +8916,7 @@
         <v>1036</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -8916,7 +8933,7 @@
         <v>1045</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -8933,7 +8950,7 @@
         <v>1081</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -8950,7 +8967,7 @@
         <v>1094</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -8967,7 +8984,7 @@
         <v>1177</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -8984,7 +9001,7 @@
         <v>1198</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -9001,7 +9018,7 @@
         <v>1233</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -9018,7 +9035,7 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -9035,7 +9052,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -9052,7 +9069,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -9069,7 +9086,7 @@
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -9086,7 +9103,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -9103,7 +9120,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -9120,7 +9137,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -9137,7 +9154,7 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -9154,7 +9171,7 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -9171,7 +9188,7 @@
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -9188,7 +9205,7 @@
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -9205,7 +9222,7 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -9222,7 +9239,7 @@
         <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -9239,7 +9256,7 @@
         <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -9256,7 +9273,7 @@
         <v>763</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -9273,7 +9290,7 @@
         <v>516</v>
       </c>
       <c r="C63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -9290,7 +9307,7 @@
         <v>528</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -9307,7 +9324,7 @@
         <v>569</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -9324,7 +9341,7 @@
         <v>591</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -9341,7 +9358,7 @@
         <v>605</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -9358,7 +9375,7 @@
         <v>626</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -9375,7 +9392,7 @@
         <v>882</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -9392,7 +9409,7 @@
         <v>891</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -9409,7 +9426,7 @@
         <v>1197</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -9426,7 +9443,7 @@
         <v>442</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -9443,7 +9460,7 @@
         <v>679</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -9460,7 +9477,7 @@
         <v>1222</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -9477,7 +9494,7 @@
         <v>790</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D75">
         <v>6</v>
@@ -9494,7 +9511,7 @@
         <v>914</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -9511,7 +9528,7 @@
         <v>820</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77">
         <v>7</v>
@@ -9528,7 +9545,7 @@
         <v>998</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78">
         <v>7</v>
@@ -9545,7 +9562,7 @@
         <v>999</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -9562,7 +9579,7 @@
         <v>1000</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80">
         <v>7</v>
@@ -9579,7 +9596,7 @@
         <v>1001</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D81">
         <v>7</v>
@@ -9596,7 +9613,7 @@
         <v>1002</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82">
         <v>7</v>
@@ -9613,7 +9630,7 @@
         <v>1003</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83">
         <v>7</v>
@@ -9630,7 +9647,7 @@
         <v>1004</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84">
         <v>7</v>
@@ -9647,7 +9664,7 @@
         <v>1005</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -9664,7 +9681,7 @@
         <v>1006</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D86">
         <v>7</v>
@@ -9681,7 +9698,7 @@
         <v>1007</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D87">
         <v>7</v>
@@ -9698,7 +9715,7 @@
         <v>1008</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D88">
         <v>7</v>
@@ -9715,7 +9732,7 @@
         <v>1009</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -9732,7 +9749,7 @@
         <v>1010</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D90">
         <v>7</v>
@@ -9749,7 +9766,7 @@
         <v>991</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -9766,7 +9783,7 @@
         <v>510</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -9783,7 +9800,7 @@
         <v>520</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -9800,7 +9817,7 @@
         <v>504</v>
       </c>
       <c r="C94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -9817,7 +9834,7 @@
         <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -9834,7 +9851,7 @@
         <v>538</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -9851,7 +9868,7 @@
         <v>547</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -9868,7 +9885,7 @@
         <v>551</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -9885,7 +9902,7 @@
         <v>552</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -9902,7 +9919,7 @@
         <v>573</v>
       </c>
       <c r="C100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -9919,7 +9936,7 @@
         <v>581</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -9936,7 +9953,7 @@
         <v>586</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -9953,7 +9970,7 @@
         <v>608</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -9970,7 +9987,7 @@
         <v>615</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -9987,7 +10004,7 @@
         <v>638</v>
       </c>
       <c r="C105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -10004,7 +10021,7 @@
         <v>652</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -10021,7 +10038,7 @@
         <v>654</v>
       </c>
       <c r="C107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -10038,7 +10055,7 @@
         <v>745</v>
       </c>
       <c r="C108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -10055,7 +10072,7 @@
         <v>775</v>
       </c>
       <c r="C109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -10072,7 +10089,7 @@
         <v>833</v>
       </c>
       <c r="C110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -10089,7 +10106,7 @@
         <v>847</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -10106,7 +10123,7 @@
         <v>876</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -10123,7 +10140,7 @@
         <v>879</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -10140,7 +10157,7 @@
         <v>1024</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -10157,7 +10174,7 @@
         <v>1063</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -10174,7 +10191,7 @@
         <v>1077</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -10191,7 +10208,7 @@
         <v>1174</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -10208,7 +10225,7 @@
         <v>1180</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -10225,7 +10242,7 @@
         <v>1200</v>
       </c>
       <c r="C119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -10242,7 +10259,7 @@
         <v>1231</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -10259,7 +10276,7 @@
         <v>133</v>
       </c>
       <c r="C121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -10276,7 +10293,7 @@
         <v>142</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D122">
         <v>3</v>
@@ -10293,7 +10310,7 @@
         <v>359</v>
       </c>
       <c r="C123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -10310,7 +10327,7 @@
         <v>995</v>
       </c>
       <c r="C124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D124">
         <v>8</v>
@@ -10327,7 +10344,7 @@
         <v>736</v>
       </c>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -10344,7 +10361,7 @@
         <v>725</v>
       </c>
       <c r="C126" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -10361,7 +10378,7 @@
         <v>123</v>
       </c>
       <c r="C127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -10378,7 +10395,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -10395,7 +10412,7 @@
         <v>137</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -10412,7 +10429,7 @@
         <v>138</v>
       </c>
       <c r="C130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -10429,7 +10446,7 @@
         <v>141</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -10446,7 +10463,7 @@
         <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -10463,7 +10480,7 @@
         <v>161</v>
       </c>
       <c r="C133" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -10480,7 +10497,7 @@
         <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -10497,7 +10514,7 @@
         <v>167</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -10514,7 +10531,7 @@
         <v>170</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -10531,7 +10548,7 @@
         <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -10548,7 +10565,7 @@
         <v>178</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -10565,7 +10582,7 @@
         <v>182</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -10582,7 +10599,7 @@
         <v>188</v>
       </c>
       <c r="C140" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -10599,7 +10616,7 @@
         <v>192</v>
       </c>
       <c r="C141" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -10616,7 +10633,7 @@
         <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -10633,7 +10650,7 @@
         <v>197</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -10650,7 +10667,7 @@
         <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -10667,7 +10684,7 @@
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -10684,7 +10701,7 @@
         <v>207</v>
       </c>
       <c r="C146" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -10701,7 +10718,7 @@
         <v>211</v>
       </c>
       <c r="C147" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -10718,7 +10735,7 @@
         <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -10735,7 +10752,7 @@
         <v>213</v>
       </c>
       <c r="C149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -10752,7 +10769,7 @@
         <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -10769,7 +10786,7 @@
         <v>218</v>
       </c>
       <c r="C151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -10786,7 +10803,7 @@
         <v>220</v>
       </c>
       <c r="C152" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -10803,7 +10820,7 @@
         <v>224</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -10820,7 +10837,7 @@
         <v>121</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -10837,7 +10854,7 @@
         <v>226</v>
       </c>
       <c r="C155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -10854,7 +10871,7 @@
         <v>120</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -10871,7 +10888,7 @@
         <v>117</v>
       </c>
       <c r="C157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -10888,7 +10905,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -10905,7 +10922,7 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -10922,7 +10939,7 @@
         <v>14</v>
       </c>
       <c r="C160" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -10939,7 +10956,7 @@
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -10956,7 +10973,7 @@
         <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -10973,7 +10990,7 @@
         <v>32</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -10990,7 +11007,7 @@
         <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -11007,7 +11024,7 @@
         <v>37</v>
       </c>
       <c r="C165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -11024,7 +11041,7 @@
         <v>39</v>
       </c>
       <c r="C166" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -11041,7 +11058,7 @@
         <v>42</v>
       </c>
       <c r="C167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -11058,7 +11075,7 @@
         <v>53</v>
       </c>
       <c r="C168" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -11075,7 +11092,7 @@
         <v>57</v>
       </c>
       <c r="C169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -11092,7 +11109,7 @@
         <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -11109,7 +11126,7 @@
         <v>61</v>
       </c>
       <c r="C171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -11126,7 +11143,7 @@
         <v>76</v>
       </c>
       <c r="C172" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -11143,7 +11160,7 @@
         <v>77</v>
       </c>
       <c r="C173" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -11160,7 +11177,7 @@
         <v>81</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -11177,7 +11194,7 @@
         <v>83</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -11194,7 +11211,7 @@
         <v>86</v>
       </c>
       <c r="C176" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -11211,7 +11228,7 @@
         <v>88</v>
       </c>
       <c r="C177" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -11228,7 +11245,7 @@
         <v>89</v>
       </c>
       <c r="C178" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -11245,7 +11262,7 @@
         <v>96</v>
       </c>
       <c r="C179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -11262,7 +11279,7 @@
         <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -11279,7 +11296,7 @@
         <v>108</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -11296,7 +11313,7 @@
         <v>110</v>
       </c>
       <c r="C182" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -11313,7 +11330,7 @@
         <v>113</v>
       </c>
       <c r="C183" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -11330,7 +11347,7 @@
         <v>114</v>
       </c>
       <c r="C184" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -11347,7 +11364,7 @@
         <v>118</v>
       </c>
       <c r="C185" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -11364,7 +11381,7 @@
         <v>730</v>
       </c>
       <c r="C186" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -11381,7 +11398,7 @@
         <v>227</v>
       </c>
       <c r="C187" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -11398,7 +11415,7 @@
         <v>244</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -11415,7 +11432,7 @@
         <v>415</v>
       </c>
       <c r="C189" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -11432,7 +11449,7 @@
         <v>416</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -11449,7 +11466,7 @@
         <v>419</v>
       </c>
       <c r="C191" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -11466,7 +11483,7 @@
         <v>420</v>
       </c>
       <c r="C192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -11483,7 +11500,7 @@
         <v>422</v>
       </c>
       <c r="C193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -11500,7 +11517,7 @@
         <v>426</v>
       </c>
       <c r="C194" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -11517,7 +11534,7 @@
         <v>428</v>
       </c>
       <c r="C195" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -11534,7 +11551,7 @@
         <v>460</v>
       </c>
       <c r="C196" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11551,7 +11568,7 @@
         <v>466</v>
       </c>
       <c r="C197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -11568,7 +11585,7 @@
         <v>496</v>
       </c>
       <c r="C198" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -11585,7 +11602,7 @@
         <v>502</v>
       </c>
       <c r="C199" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -11602,7 +11619,7 @@
         <v>508</v>
       </c>
       <c r="C200" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -11619,7 +11636,7 @@
         <v>524</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -11636,7 +11653,7 @@
         <v>549</v>
       </c>
       <c r="C202" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -11653,7 +11670,7 @@
         <v>563</v>
       </c>
       <c r="C203" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -11670,7 +11687,7 @@
         <v>566</v>
       </c>
       <c r="C204" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -11687,7 +11704,7 @@
         <v>571</v>
       </c>
       <c r="C205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -11704,7 +11721,7 @@
         <v>580</v>
       </c>
       <c r="C206" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -11721,7 +11738,7 @@
         <v>584</v>
       </c>
       <c r="C207" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -11738,7 +11755,7 @@
         <v>592</v>
       </c>
       <c r="C208" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -11755,7 +11772,7 @@
         <v>612</v>
       </c>
       <c r="C209" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -11772,7 +11789,7 @@
         <v>634</v>
       </c>
       <c r="C210" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -11789,7 +11806,7 @@
         <v>641</v>
       </c>
       <c r="C211" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -11806,7 +11823,7 @@
         <v>662</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -11823,7 +11840,7 @@
         <v>690</v>
       </c>
       <c r="C213" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -11840,7 +11857,7 @@
         <v>706</v>
       </c>
       <c r="C214" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -11857,7 +11874,7 @@
         <v>723</v>
       </c>
       <c r="C215" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -11874,7 +11891,7 @@
         <v>401</v>
       </c>
       <c r="C216" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -11891,7 +11908,7 @@
         <v>240</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -11908,7 +11925,7 @@
         <v>382</v>
       </c>
       <c r="C218" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -11925,7 +11942,7 @@
         <v>357</v>
       </c>
       <c r="C219" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -11942,7 +11959,7 @@
         <v>248</v>
       </c>
       <c r="C220" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -11959,7 +11976,7 @@
         <v>250</v>
       </c>
       <c r="C221" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -11976,7 +11993,7 @@
         <v>252</v>
       </c>
       <c r="C222" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -11993,7 +12010,7 @@
         <v>257</v>
       </c>
       <c r="C223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -12010,7 +12027,7 @@
         <v>258</v>
       </c>
       <c r="C224" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -12027,7 +12044,7 @@
         <v>265</v>
       </c>
       <c r="C225" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -12044,7 +12061,7 @@
         <v>266</v>
       </c>
       <c r="C226" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -12061,7 +12078,7 @@
         <v>267</v>
       </c>
       <c r="C227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -12078,7 +12095,7 @@
         <v>272</v>
       </c>
       <c r="C228" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -12095,7 +12112,7 @@
         <v>274</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -12112,7 +12129,7 @@
         <v>277</v>
       </c>
       <c r="C230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -12129,7 +12146,7 @@
         <v>278</v>
       </c>
       <c r="C231" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -12146,7 +12163,7 @@
         <v>280</v>
       </c>
       <c r="C232" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -12163,7 +12180,7 @@
         <v>290</v>
       </c>
       <c r="C233" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -12180,7 +12197,7 @@
         <v>311</v>
       </c>
       <c r="C234" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -12197,7 +12214,7 @@
         <v>318</v>
       </c>
       <c r="C235" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -12214,7 +12231,7 @@
         <v>322</v>
       </c>
       <c r="C236" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -12231,7 +12248,7 @@
         <v>325</v>
       </c>
       <c r="C237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -12248,7 +12265,7 @@
         <v>327</v>
       </c>
       <c r="C238" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -12265,7 +12282,7 @@
         <v>328</v>
       </c>
       <c r="C239" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -12282,7 +12299,7 @@
         <v>339</v>
       </c>
       <c r="C240" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -12299,7 +12316,7 @@
         <v>341</v>
       </c>
       <c r="C241" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -12316,7 +12333,7 @@
         <v>342</v>
       </c>
       <c r="C242" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -12333,7 +12350,7 @@
         <v>344</v>
       </c>
       <c r="C243" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -12350,7 +12367,7 @@
         <v>345</v>
       </c>
       <c r="C244" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -12367,7 +12384,7 @@
         <v>349</v>
       </c>
       <c r="C245" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -12384,7 +12401,7 @@
         <v>354</v>
       </c>
       <c r="C246" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -12401,7 +12418,7 @@
         <v>364</v>
       </c>
       <c r="C247" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -12418,7 +12435,7 @@
         <v>1119</v>
       </c>
       <c r="C248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D248">
         <v>9</v>
@@ -12509,7 +12526,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2">
         <v>229</v>
@@ -12529,7 +12546,7 @@
         <v>1747</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D3">
         <v>238</v>
@@ -12549,7 +12566,7 @@
         <v>1750</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4">
         <v>238</v>
@@ -12569,7 +12586,7 @@
         <v>5963</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D5">
         <v>237</v>
@@ -12589,7 +12606,7 @@
         <v>1482</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D6">
         <v>236</v>
@@ -12609,7 +12626,7 @@
         <v>1488</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D7">
         <v>236</v>
@@ -12629,7 +12646,7 @@
         <v>1449</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D8">
         <v>235</v>
@@ -12649,7 +12666,7 @@
         <v>1448</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D9">
         <v>235</v>
@@ -12669,7 +12686,7 @@
         <v>1447</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10">
         <v>235</v>
@@ -12689,7 +12706,7 @@
         <v>1368</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D11">
         <v>234</v>
@@ -12709,7 +12726,7 @@
         <v>1370</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12">
         <v>234</v>
@@ -12729,7 +12746,7 @@
         <v>1365</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13">
         <v>234</v>
@@ -12749,7 +12766,7 @@
         <v>10173</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D14">
         <v>234</v>
@@ -12769,7 +12786,7 @@
         <v>1350</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D15">
         <v>233</v>
@@ -12789,7 +12806,7 @@
         <v>1260</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D16">
         <v>232</v>
@@ -12809,7 +12826,7 @@
         <v>1748</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D17">
         <v>238</v>
@@ -12829,7 +12846,7 @@
         <v>1254</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D18">
         <v>232</v>
@@ -12849,7 +12866,7 @@
         <v>1096</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D19">
         <v>231</v>
@@ -12869,7 +12886,7 @@
         <v>1062</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D20">
         <v>230</v>
@@ -12889,7 +12906,7 @@
         <v>1010</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D21">
         <v>257</v>
@@ -12909,7 +12926,7 @@
         <v>1006</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D22">
         <v>257</v>
@@ -12929,7 +12946,7 @@
         <v>1007</v>
       </c>
       <c r="C23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D23">
         <v>257</v>
@@ -12949,7 +12966,7 @@
         <v>7981</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24">
         <v>259</v>
@@ -12969,7 +12986,7 @@
         <v>835</v>
       </c>
       <c r="C25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D25">
         <v>288</v>
@@ -12989,7 +13006,7 @@
         <v>839</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D26">
         <v>288</v>
@@ -13009,7 +13026,7 @@
         <v>838</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D27">
         <v>288</v>
@@ -13029,7 +13046,7 @@
         <v>837</v>
       </c>
       <c r="C28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D28">
         <v>288</v>
@@ -13049,7 +13066,7 @@
         <v>588</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29">
         <v>260</v>
@@ -13069,7 +13086,7 @@
         <v>585</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D30">
         <v>287</v>
@@ -13089,7 +13106,7 @@
         <v>5898</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D31">
         <v>287</v>
@@ -13109,7 +13126,7 @@
         <v>587</v>
       </c>
       <c r="C32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D32">
         <v>287</v>
@@ -13129,7 +13146,7 @@
         <v>1255</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33">
         <v>232</v>
@@ -13149,7 +13166,7 @@
         <v>1749</v>
       </c>
       <c r="C34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34">
         <v>238</v>
@@ -13169,7 +13186,7 @@
         <v>1744</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35">
         <v>238</v>
@@ -13189,7 +13206,7 @@
         <v>1751</v>
       </c>
       <c r="C36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D36">
         <v>238</v>
@@ -13209,7 +13226,7 @@
         <v>3134</v>
       </c>
       <c r="C37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D37">
         <v>253</v>
@@ -13229,7 +13246,7 @@
         <v>3089</v>
       </c>
       <c r="C38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38">
         <v>252</v>
@@ -13249,7 +13266,7 @@
         <v>3090</v>
       </c>
       <c r="C39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D39">
         <v>252</v>
@@ -13269,7 +13286,7 @@
         <v>3092</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D40">
         <v>252</v>
@@ -13289,7 +13306,7 @@
         <v>3059</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D41">
         <v>251</v>
@@ -13309,7 +13326,7 @@
         <v>3058</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D42">
         <v>251</v>
@@ -13329,7 +13346,7 @@
         <v>3060</v>
       </c>
       <c r="C43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D43">
         <v>251</v>
@@ -13349,7 +13366,7 @@
         <v>3061</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D44">
         <v>251</v>
@@ -13369,7 +13386,7 @@
         <v>3063</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D45">
         <v>251</v>
@@ -13389,7 +13406,7 @@
         <v>2980</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D46">
         <v>250</v>
@@ -13409,7 +13426,7 @@
         <v>2891</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D47">
         <v>249</v>
@@ -13429,7 +13446,7 @@
         <v>2772</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D48">
         <v>248</v>
@@ -13449,7 +13466,7 @@
         <v>10172</v>
       </c>
       <c r="C49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D49">
         <v>248</v>
@@ -13469,7 +13486,7 @@
         <v>6063</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D50">
         <v>248</v>
@@ -13489,7 +13506,7 @@
         <v>6060</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D51">
         <v>248</v>
@@ -13509,7 +13526,7 @@
         <v>2648</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D52">
         <v>247</v>
@@ -13529,7 +13546,7 @@
         <v>2610</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D53">
         <v>246</v>
@@ -13549,7 +13566,7 @@
         <v>1759</v>
       </c>
       <c r="C54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D54">
         <v>239</v>
@@ -13569,7 +13586,7 @@
         <v>1905</v>
       </c>
       <c r="C55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D55">
         <v>240</v>
@@ -13589,7 +13606,7 @@
         <v>1897</v>
       </c>
       <c r="C56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D56">
         <v>240</v>
@@ -13609,7 +13626,7 @@
         <v>1898</v>
       </c>
       <c r="C57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D57">
         <v>240</v>
@@ -13629,7 +13646,7 @@
         <v>1899</v>
       </c>
       <c r="C58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D58">
         <v>240</v>
@@ -13649,7 +13666,7 @@
         <v>1900</v>
       </c>
       <c r="C59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D59">
         <v>240</v>
@@ -13669,7 +13686,7 @@
         <v>564</v>
       </c>
       <c r="C60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D60">
         <v>286</v>
@@ -13689,7 +13706,7 @@
         <v>2000</v>
       </c>
       <c r="C61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D61">
         <v>241</v>
@@ -13709,7 +13726,7 @@
         <v>2407</v>
       </c>
       <c r="C62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D62">
         <v>243</v>
@@ -13729,7 +13746,7 @@
         <v>2507</v>
       </c>
       <c r="C63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D63">
         <v>244</v>
@@ -13749,7 +13766,7 @@
         <v>2558</v>
       </c>
       <c r="C64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D64">
         <v>245</v>
@@ -13769,7 +13786,7 @@
         <v>2559</v>
       </c>
       <c r="C65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D65">
         <v>245</v>
@@ -13789,7 +13806,7 @@
         <v>2561</v>
       </c>
       <c r="C66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D66">
         <v>245</v>
@@ -13809,7 +13826,7 @@
         <v>2613</v>
       </c>
       <c r="C67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D67">
         <v>246</v>
@@ -13829,7 +13846,7 @@
         <v>2166</v>
       </c>
       <c r="C68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D68">
         <v>242</v>
@@ -13849,7 +13866,7 @@
         <v>5638</v>
       </c>
       <c r="C69" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D69">
         <v>254</v>
@@ -13869,7 +13886,7 @@
         <v>560</v>
       </c>
       <c r="C70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D70">
         <v>286</v>
@@ -13889,7 +13906,7 @@
         <v>561</v>
       </c>
       <c r="C71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D71">
         <v>286</v>
@@ -13909,7 +13926,7 @@
         <v>9302</v>
       </c>
       <c r="C72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D72">
         <v>271</v>
@@ -13929,7 +13946,7 @@
         <v>9303</v>
       </c>
       <c r="C73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D73">
         <v>271</v>
@@ -13949,7 +13966,7 @@
         <v>9305</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D74">
         <v>271</v>
@@ -13969,7 +13986,7 @@
         <v>9222</v>
       </c>
       <c r="C75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D75">
         <v>270</v>
@@ -13989,7 +14006,7 @@
         <v>8985</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D76">
         <v>269</v>
@@ -14009,7 +14026,7 @@
         <v>8984</v>
       </c>
       <c r="C77" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D77">
         <v>269</v>
@@ -14029,7 +14046,7 @@
         <v>8981</v>
       </c>
       <c r="C78" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D78">
         <v>269</v>
@@ -14049,7 +14066,7 @@
         <v>8982</v>
       </c>
       <c r="C79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D79">
         <v>269</v>
@@ -14069,7 +14086,7 @@
         <v>8986</v>
       </c>
       <c r="C80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D80">
         <v>269</v>
@@ -14089,7 +14106,7 @@
         <v>8979</v>
       </c>
       <c r="C81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D81">
         <v>269</v>
@@ -14109,7 +14126,7 @@
         <v>8987</v>
       </c>
       <c r="C82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D82">
         <v>269</v>
@@ -14129,7 +14146,7 @@
         <v>8980</v>
       </c>
       <c r="C83" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D83">
         <v>269</v>
@@ -14149,7 +14166,7 @@
         <v>8857</v>
       </c>
       <c r="C84" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D84">
         <v>268</v>
@@ -14169,7 +14186,7 @@
         <v>7717</v>
       </c>
       <c r="C85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D85">
         <v>267</v>
@@ -14189,7 +14206,7 @@
         <v>9300</v>
       </c>
       <c r="C86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D86">
         <v>271</v>
@@ -14209,7 +14226,7 @@
         <v>7597</v>
       </c>
       <c r="C87" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D87">
         <v>266</v>
@@ -14229,7 +14246,7 @@
         <v>7180</v>
       </c>
       <c r="C88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D88">
         <v>264</v>
@@ -14249,7 +14266,7 @@
         <v>7181</v>
       </c>
       <c r="C89" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D89">
         <v>264</v>
@@ -14269,7 +14286,7 @@
         <v>6950</v>
       </c>
       <c r="C90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D90">
         <v>263</v>
@@ -14289,7 +14306,7 @@
         <v>6631</v>
       </c>
       <c r="C91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D91">
         <v>262</v>
@@ -14309,7 +14326,7 @@
         <v>6629</v>
       </c>
       <c r="C92" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D92">
         <v>262</v>
@@ -14329,7 +14346,7 @@
         <v>6635</v>
       </c>
       <c r="C93" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D93">
         <v>262</v>
@@ -14349,7 +14366,7 @@
         <v>6630</v>
       </c>
       <c r="C94" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D94">
         <v>262</v>
@@ -14369,7 +14386,7 @@
         <v>6324</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D95">
         <v>261</v>
@@ -14389,7 +14406,7 @@
         <v>6323</v>
       </c>
       <c r="C96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D96">
         <v>261</v>
@@ -14409,7 +14426,7 @@
         <v>6322</v>
       </c>
       <c r="C97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D97">
         <v>261</v>
@@ -14429,7 +14446,7 @@
         <v>6320</v>
       </c>
       <c r="C98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D98">
         <v>261</v>
@@ -14449,7 +14466,7 @@
         <v>5263</v>
       </c>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D99">
         <v>289</v>
@@ -14469,7 +14486,7 @@
         <v>5264</v>
       </c>
       <c r="C100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D100">
         <v>289</v>
@@ -14489,7 +14506,7 @@
         <v>5265</v>
       </c>
       <c r="C101" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D101">
         <v>289</v>
@@ -14509,7 +14526,7 @@
         <v>7510</v>
       </c>
       <c r="C102" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D102">
         <v>265</v>
@@ -14529,7 +14546,7 @@
         <v>9299</v>
       </c>
       <c r="C103" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D103">
         <v>271</v>
@@ -14549,7 +14566,7 @@
         <v>9912</v>
       </c>
       <c r="C104" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D104">
         <v>272</v>
@@ -14569,7 +14586,7 @@
         <v>9908</v>
       </c>
       <c r="C105" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D105">
         <v>272</v>
@@ -14589,7 +14606,7 @@
         <v>490</v>
       </c>
       <c r="C106" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D106">
         <v>285</v>
@@ -14609,7 +14626,7 @@
         <v>489</v>
       </c>
       <c r="C107" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D107">
         <v>285</v>
@@ -14629,7 +14646,7 @@
         <v>487</v>
       </c>
       <c r="C108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D108">
         <v>285</v>
@@ -14649,7 +14666,7 @@
         <v>486</v>
       </c>
       <c r="C109" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D109">
         <v>285</v>
@@ -14669,7 +14686,7 @@
         <v>479</v>
       </c>
       <c r="C110" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D110">
         <v>284</v>
@@ -14689,7 +14706,7 @@
         <v>475</v>
       </c>
       <c r="C111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D111">
         <v>284</v>
@@ -14709,7 +14726,7 @@
         <v>5736</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D112">
         <v>283</v>
@@ -14729,7 +14746,7 @@
         <v>458</v>
       </c>
       <c r="C113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D113">
         <v>283</v>
@@ -14749,7 +14766,7 @@
         <v>446</v>
       </c>
       <c r="C114" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D114">
         <v>282</v>
@@ -14769,7 +14786,7 @@
         <v>400</v>
       </c>
       <c r="C115" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D115">
         <v>281</v>
@@ -14789,7 +14806,7 @@
         <v>392</v>
       </c>
       <c r="C116" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D116">
         <v>280</v>
@@ -14809,7 +14826,7 @@
         <v>368</v>
       </c>
       <c r="C117" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D117">
         <v>279</v>
@@ -14829,7 +14846,7 @@
         <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D118">
         <v>278</v>
@@ -14849,7 +14866,7 @@
         <v>261</v>
       </c>
       <c r="C119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D119">
         <v>278</v>
@@ -14869,7 +14886,7 @@
         <v>260</v>
       </c>
       <c r="C120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D120">
         <v>278</v>
@@ -14889,7 +14906,7 @@
         <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D121">
         <v>278</v>
@@ -14909,7 +14926,7 @@
         <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D122">
         <v>278</v>
@@ -14929,7 +14946,7 @@
         <v>9910</v>
       </c>
       <c r="C123" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D123">
         <v>272</v>
@@ -14949,7 +14966,7 @@
         <v>9911</v>
       </c>
       <c r="C124" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D124">
         <v>272</v>
@@ -14969,7 +14986,7 @@
         <v>10059</v>
       </c>
       <c r="C125" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D125">
         <v>273</v>
@@ -14989,7 +15006,7 @@
         <v>10061</v>
       </c>
       <c r="C126" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D126">
         <v>273</v>
@@ -15009,7 +15026,7 @@
         <v>10062</v>
       </c>
       <c r="C127" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D127">
         <v>273</v>
@@ -15029,7 +15046,7 @@
         <v>10063</v>
       </c>
       <c r="C128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D128">
         <v>273</v>
@@ -15049,7 +15066,7 @@
         <v>562</v>
       </c>
       <c r="C129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D129">
         <v>286</v>
@@ -15069,7 +15086,7 @@
         <v>10064</v>
       </c>
       <c r="C130" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D130">
         <v>273</v>
@@ -15089,7 +15106,7 @@
         <v>10058</v>
       </c>
       <c r="C131" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D131">
         <v>273</v>
@@ -15109,7 +15126,7 @@
         <v>10189</v>
       </c>
       <c r="C132" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D132">
         <v>274</v>
@@ -15129,7 +15146,7 @@
         <v>10191</v>
       </c>
       <c r="C133" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D133">
         <v>274</v>
@@ -15149,7 +15166,7 @@
         <v>61</v>
       </c>
       <c r="C134" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D134">
         <v>275</v>
@@ -15169,7 +15186,7 @@
         <v>71</v>
       </c>
       <c r="C135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D135">
         <v>276</v>
@@ -15189,7 +15206,7 @@
         <v>5763</v>
       </c>
       <c r="C136" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D136">
         <v>277</v>
@@ -15209,7 +15226,7 @@
         <v>10065</v>
       </c>
       <c r="C137" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D137">
         <v>273</v>
@@ -15229,7 +15246,7 @@
         <v>5633</v>
       </c>
       <c r="C138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D138">
         <v>254</v>
@@ -15249,7 +15266,7 @@
         <v>5634</v>
       </c>
       <c r="C139" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D139">
         <v>254</v>
@@ -15269,7 +15286,7 @@
         <v>5636</v>
       </c>
       <c r="C140" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D140">
         <v>254</v>
@@ -15289,7 +15306,7 @@
         <v>8604</v>
       </c>
       <c r="C141" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D141">
         <v>307</v>
@@ -15309,7 +15326,7 @@
         <v>8605</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D142">
         <v>307</v>
@@ -15329,7 +15346,7 @@
         <v>8600</v>
       </c>
       <c r="C143" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D143">
         <v>306</v>
@@ -15349,7 +15366,7 @@
         <v>8601</v>
       </c>
       <c r="C144" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D144">
         <v>306</v>
@@ -15369,7 +15386,7 @@
         <v>8599</v>
       </c>
       <c r="C145" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D145">
         <v>306</v>
@@ -15389,7 +15406,7 @@
         <v>8596</v>
       </c>
       <c r="C146" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D146">
         <v>306</v>
@@ -15409,7 +15426,7 @@
         <v>8591</v>
       </c>
       <c r="C147" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D147">
         <v>305</v>
@@ -15429,7 +15446,7 @@
         <v>8594</v>
       </c>
       <c r="C148" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D148">
         <v>305</v>
@@ -15449,7 +15466,7 @@
         <v>8595</v>
       </c>
       <c r="C149" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D149">
         <v>305</v>
@@ -15469,7 +15486,7 @@
         <v>6309</v>
       </c>
       <c r="C150" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D150">
         <v>304</v>
@@ -15489,7 +15506,7 @@
         <v>7870</v>
       </c>
       <c r="C151" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D151">
         <v>303</v>
@@ -15509,7 +15526,7 @@
         <v>5497</v>
       </c>
       <c r="C152" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D152">
         <v>302</v>
@@ -15529,7 +15546,7 @@
         <v>10168</v>
       </c>
       <c r="C153" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D153">
         <v>301</v>
@@ -15549,7 +15566,7 @@
         <v>4589</v>
       </c>
       <c r="C154" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D154">
         <v>300</v>
@@ -15569,7 +15586,7 @@
         <v>8606</v>
       </c>
       <c r="C155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D155">
         <v>308</v>
@@ -15589,7 +15606,7 @@
         <v>3068</v>
       </c>
       <c r="C156" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D156">
         <v>299</v>
@@ -15609,7 +15626,7 @@
         <v>8258</v>
       </c>
       <c r="C157" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D157">
         <v>299</v>
@@ -15629,7 +15646,7 @@
         <v>8261</v>
       </c>
       <c r="C158" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D158">
         <v>299</v>
@@ -15649,7 +15666,7 @@
         <v>10042</v>
       </c>
       <c r="C159" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D159">
         <v>298</v>
@@ -15669,7 +15686,7 @@
         <v>10051</v>
       </c>
       <c r="C160" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D160">
         <v>298</v>
@@ -15689,7 +15706,7 @@
         <v>7550</v>
       </c>
       <c r="C161" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D161">
         <v>297</v>
@@ -15709,7 +15726,7 @@
         <v>7451</v>
       </c>
       <c r="C162" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D162">
         <v>296</v>
@@ -15729,7 +15746,7 @@
         <v>4252</v>
       </c>
       <c r="C163" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D163">
         <v>295</v>
@@ -15749,7 +15766,7 @@
         <v>7101</v>
       </c>
       <c r="C164" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D164">
         <v>294</v>
@@ -15769,7 +15786,7 @@
         <v>6973</v>
       </c>
       <c r="C165" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D165">
         <v>293</v>
@@ -15789,7 +15806,7 @@
         <v>7756</v>
       </c>
       <c r="C166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D166">
         <v>292</v>
@@ -15809,7 +15826,7 @@
         <v>3440</v>
       </c>
       <c r="C167" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D167">
         <v>319</v>
@@ -15829,7 +15846,7 @@
         <v>7453</v>
       </c>
       <c r="C168" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D168">
         <v>321</v>
@@ -15849,7 +15866,7 @@
         <v>2565</v>
       </c>
       <c r="C169" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D169">
         <v>350</v>
@@ -15869,7 +15886,7 @@
         <v>1265</v>
       </c>
       <c r="C170" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D170">
         <v>322</v>
@@ -15889,7 +15906,7 @@
         <v>8256</v>
       </c>
       <c r="C171" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D171">
         <v>299</v>
@@ -15909,7 +15926,7 @@
         <v>8607</v>
       </c>
       <c r="C172" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D172">
         <v>308</v>
@@ -15929,7 +15946,7 @@
         <v>8610</v>
       </c>
       <c r="C173" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D173">
         <v>308</v>
@@ -15949,7 +15966,7 @@
         <v>8612</v>
       </c>
       <c r="C174" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D174">
         <v>309</v>
@@ -15969,7 +15986,7 @@
         <v>8579</v>
       </c>
       <c r="C175" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D175">
         <v>351</v>
@@ -15989,7 +16006,7 @@
         <v>8563</v>
       </c>
       <c r="C176" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D176">
         <v>318</v>
@@ -16009,7 +16026,7 @@
         <v>8564</v>
       </c>
       <c r="C177" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D177">
         <v>318</v>
@@ -16029,7 +16046,7 @@
         <v>8565</v>
       </c>
       <c r="C178" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D178">
         <v>318</v>
@@ -16049,7 +16066,7 @@
         <v>8568</v>
       </c>
       <c r="C179" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D179">
         <v>318</v>
@@ -16069,7 +16086,7 @@
         <v>8569</v>
       </c>
       <c r="C180" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D180">
         <v>318</v>
@@ -16089,7 +16106,7 @@
         <v>8656</v>
       </c>
       <c r="C181" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D181">
         <v>317</v>
@@ -16109,7 +16126,7 @@
         <v>8651</v>
       </c>
       <c r="C182" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D182">
         <v>317</v>
@@ -16129,7 +16146,7 @@
         <v>8652</v>
       </c>
       <c r="C183" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D183">
         <v>317</v>
@@ -16149,7 +16166,7 @@
         <v>8657</v>
       </c>
       <c r="C184" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D184">
         <v>317</v>
@@ -16169,7 +16186,7 @@
         <v>8646</v>
       </c>
       <c r="C185" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D185">
         <v>316</v>
@@ -16189,7 +16206,7 @@
         <v>8650</v>
       </c>
       <c r="C186" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D186">
         <v>316</v>
@@ -16209,7 +16226,7 @@
         <v>8645</v>
       </c>
       <c r="C187" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D187">
         <v>315</v>
@@ -16229,7 +16246,7 @@
         <v>8640</v>
       </c>
       <c r="C188" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D188">
         <v>315</v>
@@ -16249,7 +16266,7 @@
         <v>8644</v>
       </c>
       <c r="C189" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D189">
         <v>315</v>
@@ -16269,7 +16286,7 @@
         <v>8639</v>
       </c>
       <c r="C190" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D190">
         <v>314</v>
@@ -16289,7 +16306,7 @@
         <v>10249</v>
       </c>
       <c r="C191" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D191">
         <v>314</v>
@@ -16309,7 +16326,7 @@
         <v>8615</v>
       </c>
       <c r="C192" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D192">
         <v>309</v>
@@ -16329,7 +16346,7 @@
         <v>8616</v>
       </c>
       <c r="C193" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D193">
         <v>309</v>
@@ -16349,7 +16366,7 @@
         <v>8617</v>
       </c>
       <c r="C194" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D194">
         <v>309</v>
@@ -16369,7 +16386,7 @@
         <v>8611</v>
       </c>
       <c r="C195" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D195">
         <v>309</v>
@@ -16389,7 +16406,7 @@
         <v>8624</v>
       </c>
       <c r="C196" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D196">
         <v>310</v>
@@ -16409,7 +16426,7 @@
         <v>8618</v>
       </c>
       <c r="C197" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D197">
         <v>310</v>
@@ -16429,7 +16446,7 @@
         <v>6740</v>
       </c>
       <c r="C198" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D198">
         <v>349</v>
@@ -16449,7 +16466,7 @@
         <v>8619</v>
       </c>
       <c r="C199" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D199">
         <v>310</v>
@@ -16469,7 +16486,7 @@
         <v>8625</v>
       </c>
       <c r="C200" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D200">
         <v>311</v>
@@ -16489,7 +16506,7 @@
         <v>8628</v>
       </c>
       <c r="C201" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D201">
         <v>311</v>
@@ -16509,7 +16526,7 @@
         <v>8629</v>
       </c>
       <c r="C202" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D202">
         <v>312</v>
@@ -16529,7 +16546,7 @@
         <v>8634</v>
       </c>
       <c r="C203" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D203">
         <v>313</v>
@@ -16549,7 +16566,7 @@
         <v>8635</v>
       </c>
       <c r="C204" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D204">
         <v>313</v>
@@ -16569,7 +16586,7 @@
         <v>8631</v>
       </c>
       <c r="C205" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D205">
         <v>313</v>
@@ -16589,7 +16606,7 @@
         <v>8623</v>
       </c>
       <c r="C206" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D206">
         <v>310</v>
@@ -16609,7 +16626,7 @@
         <v>8442</v>
       </c>
       <c r="C207" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D207">
         <v>348</v>
@@ -16629,7 +16646,7 @@
         <v>10186</v>
       </c>
       <c r="C208" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D208">
         <v>347</v>
@@ -16649,7 +16666,7 @@
         <v>10069</v>
       </c>
       <c r="C209" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D209">
         <v>346</v>
@@ -16669,7 +16686,7 @@
         <v>4448</v>
       </c>
       <c r="C210" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D210">
         <v>334</v>
@@ -16689,7 +16706,7 @@
         <v>4440</v>
       </c>
       <c r="C211" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D211">
         <v>333</v>
@@ -16709,7 +16726,7 @@
         <v>4343</v>
       </c>
       <c r="C212" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D212">
         <v>332</v>
@@ -16729,7 +16746,7 @@
         <v>4166</v>
       </c>
       <c r="C213" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D213">
         <v>331</v>
@@ -16749,7 +16766,7 @@
         <v>4171</v>
       </c>
       <c r="C214" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D214">
         <v>331</v>
@@ -16769,7 +16786,7 @@
         <v>4168</v>
       </c>
       <c r="C215" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D215">
         <v>331</v>
@@ -16789,7 +16806,7 @@
         <v>4175</v>
       </c>
       <c r="C216" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D216">
         <v>331</v>
@@ -16809,7 +16826,7 @@
         <v>6252</v>
       </c>
       <c r="C217" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D217">
         <v>330</v>
@@ -16829,7 +16846,7 @@
         <v>3965</v>
       </c>
       <c r="C218" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D218">
         <v>329</v>
@@ -16849,7 +16866,7 @@
         <v>6861</v>
       </c>
       <c r="C219" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D219">
         <v>328</v>
@@ -16869,7 +16886,7 @@
         <v>3888</v>
       </c>
       <c r="C220" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D220">
         <v>327</v>
@@ -16889,7 +16906,7 @@
         <v>3732</v>
       </c>
       <c r="C221" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D221">
         <v>326</v>
@@ -16909,7 +16926,7 @@
         <v>3720</v>
       </c>
       <c r="C222" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D222">
         <v>325</v>
@@ -16929,7 +16946,7 @@
         <v>3724</v>
       </c>
       <c r="C223" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D223">
         <v>325</v>
@@ -16949,7 +16966,7 @@
         <v>3723</v>
       </c>
       <c r="C224" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D224">
         <v>325</v>
@@ -16969,7 +16986,7 @@
         <v>3687</v>
       </c>
       <c r="C225" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D225">
         <v>324</v>
@@ -16989,7 +17006,7 @@
         <v>3630</v>
       </c>
       <c r="C226" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D226">
         <v>323</v>
@@ -17009,7 +17026,7 @@
         <v>5637</v>
       </c>
       <c r="C227" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D227">
         <v>254</v>
@@ -17029,7 +17046,7 @@
         <v>6992</v>
       </c>
       <c r="C228" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D228">
         <v>255</v>
@@ -17049,7 +17066,7 @@
         <v>6996</v>
       </c>
       <c r="C229" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D229">
         <v>255</v>
@@ -17069,7 +17086,7 @@
         <v>3367</v>
       </c>
       <c r="C230" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D230">
         <v>256</v>
@@ -17089,7 +17106,7 @@
         <v>3456</v>
       </c>
       <c r="C231" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D231">
         <v>258</v>
@@ -17109,7 +17126,7 @@
         <v>3493</v>
       </c>
       <c r="C232" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D232">
         <v>290</v>
@@ -17129,7 +17146,7 @@
         <v>4447</v>
       </c>
       <c r="C233" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D233">
         <v>334</v>
@@ -17149,7 +17166,7 @@
         <v>3518</v>
       </c>
       <c r="C234" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D234">
         <v>320</v>
@@ -17169,7 +17186,7 @@
         <v>3636</v>
       </c>
       <c r="C235" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D235">
         <v>323</v>
@@ -17189,7 +17206,7 @@
         <v>3631</v>
       </c>
       <c r="C236" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D236">
         <v>323</v>
@@ -17209,7 +17226,7 @@
         <v>3632</v>
       </c>
       <c r="C237" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D237">
         <v>323</v>
@@ -17229,7 +17246,7 @@
         <v>3637</v>
       </c>
       <c r="C238" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D238">
         <v>323</v>
@@ -17249,7 +17266,7 @@
         <v>3634</v>
       </c>
       <c r="C239" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D239">
         <v>323</v>
@@ -17269,7 +17286,7 @@
         <v>3633</v>
       </c>
       <c r="C240" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D240">
         <v>323</v>
@@ -17289,7 +17306,7 @@
         <v>5834</v>
       </c>
       <c r="C241" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D241">
         <v>291</v>
@@ -17309,7 +17326,7 @@
         <v>4985</v>
       </c>
       <c r="C242" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D242">
         <v>352</v>
@@ -17329,7 +17346,7 @@
         <v>5069</v>
       </c>
       <c r="C243" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D243">
         <v>335</v>
@@ -17349,7 +17366,7 @@
         <v>5371</v>
       </c>
       <c r="C244" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D244">
         <v>336</v>
@@ -17369,7 +17386,7 @@
         <v>9958</v>
       </c>
       <c r="C245" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D245">
         <v>345</v>
@@ -17389,7 +17406,7 @@
         <v>9957</v>
       </c>
       <c r="C246" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D246">
         <v>345</v>
@@ -17409,7 +17426,7 @@
         <v>9878</v>
       </c>
       <c r="C247" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D247">
         <v>344</v>
@@ -17429,7 +17446,7 @@
         <v>9188</v>
       </c>
       <c r="C248" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D248">
         <v>343</v>
@@ -17449,7 +17466,7 @@
         <v>9123</v>
       </c>
       <c r="C249" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D249">
         <v>342</v>
@@ -17469,7 +17486,7 @@
         <v>9122</v>
       </c>
       <c r="C250" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D250">
         <v>342</v>
@@ -17489,7 +17506,7 @@
         <v>9120</v>
       </c>
       <c r="C251" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D251">
         <v>342</v>
@@ -17509,7 +17526,7 @@
         <v>9118</v>
       </c>
       <c r="C252" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D252">
         <v>342</v>
@@ -17529,7 +17546,7 @@
         <v>9119</v>
       </c>
       <c r="C253" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D253">
         <v>342</v>
@@ -17549,7 +17566,7 @@
         <v>8778</v>
       </c>
       <c r="C254" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D254">
         <v>341</v>
@@ -17569,7 +17586,7 @@
         <v>8776</v>
       </c>
       <c r="C255" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D255">
         <v>341</v>
@@ -17589,7 +17606,7 @@
         <v>8781</v>
       </c>
       <c r="C256" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D256">
         <v>341</v>
@@ -17609,7 +17626,7 @@
         <v>7396</v>
       </c>
       <c r="C257" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D257">
         <v>340</v>
@@ -17629,7 +17646,7 @@
         <v>7236</v>
       </c>
       <c r="C258" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D258">
         <v>339</v>
@@ -17649,7 +17666,7 @@
         <v>7241</v>
       </c>
       <c r="C259" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D259">
         <v>339</v>
@@ -17669,7 +17686,7 @@
         <v>7240</v>
       </c>
       <c r="C260" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D260">
         <v>339</v>
@@ -17689,7 +17706,7 @@
         <v>7235</v>
       </c>
       <c r="C261" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D261">
         <v>339</v>
@@ -17709,7 +17726,7 @@
         <v>5370</v>
       </c>
       <c r="C262" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D262">
         <v>336</v>
@@ -17729,7 +17746,7 @@
         <v>5376</v>
       </c>
       <c r="C263" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D263">
         <v>336</v>
@@ -17749,7 +17766,7 @@
         <v>5372</v>
       </c>
       <c r="C264" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D264">
         <v>336</v>
@@ -17769,7 +17786,7 @@
         <v>5377</v>
       </c>
       <c r="C265" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D265">
         <v>336</v>
@@ -17789,7 +17806,7 @@
         <v>6687</v>
       </c>
       <c r="C266" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D266">
         <v>337</v>
@@ -17809,7 +17826,7 @@
         <v>6686</v>
       </c>
       <c r="C267" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D267">
         <v>337</v>
@@ -17829,7 +17846,7 @@
         <v>5070</v>
       </c>
       <c r="C268" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D268">
         <v>335</v>
@@ -17849,7 +17866,7 @@
         <v>6925</v>
       </c>
       <c r="C269" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D269">
         <v>338</v>
@@ -17869,7 +17886,7 @@
         <v>7234</v>
       </c>
       <c r="C270" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D270">
         <v>339</v>
@@ -17889,7 +17906,7 @@
         <v>7237</v>
       </c>
       <c r="C271" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D271">
         <v>339</v>
@@ -17909,7 +17926,7 @@
         <v>7238</v>
       </c>
       <c r="C272" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D272">
         <v>339</v>
@@ -17929,7 +17946,7 @@
         <v>7239</v>
       </c>
       <c r="C273" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D273">
         <v>339</v>
@@ -17949,7 +17966,7 @@
         <v>7242</v>
       </c>
       <c r="C274" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D274">
         <v>339</v>
@@ -17969,7 +17986,7 @@
         <v>10073</v>
       </c>
       <c r="C275" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D275">
         <v>339</v>
@@ -17989,7 +18006,7 @@
         <v>7232</v>
       </c>
       <c r="C276" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D276">
         <v>339</v>
@@ -18009,7 +18026,7 @@
         <v>4922</v>
       </c>
       <c r="C277" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D277">
         <v>413</v>
@@ -18029,7 +18046,7 @@
         <v>4890</v>
       </c>
       <c r="C278" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D278">
         <v>353</v>
@@ -18049,7 +18066,7 @@
         <v>4872</v>
       </c>
       <c r="C279" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D279">
         <v>442</v>
@@ -18069,7 +18086,7 @@
         <v>1408</v>
       </c>
       <c r="C280" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D280">
         <v>368</v>
@@ -18089,7 +18106,7 @@
         <v>1406</v>
       </c>
       <c r="C281" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D281">
         <v>368</v>
@@ -18109,7 +18126,7 @@
         <v>1405</v>
       </c>
       <c r="C282" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D282">
         <v>368</v>
@@ -18129,7 +18146,7 @@
         <v>1404</v>
       </c>
       <c r="C283" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D283">
         <v>368</v>
@@ -18149,7 +18166,7 @@
         <v>1385</v>
       </c>
       <c r="C284" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D284">
         <v>367</v>
@@ -18169,7 +18186,7 @@
         <v>1359</v>
       </c>
       <c r="C285" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D285">
         <v>366</v>
@@ -18189,7 +18206,7 @@
         <v>1355</v>
       </c>
       <c r="C286" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D286">
         <v>366</v>
@@ -18209,7 +18226,7 @@
         <v>6684</v>
       </c>
       <c r="C287" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D287">
         <v>366</v>
@@ -18229,7 +18246,7 @@
         <v>1352</v>
       </c>
       <c r="C288" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D288">
         <v>366</v>
@@ -18249,7 +18266,7 @@
         <v>1356</v>
       </c>
       <c r="C289" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D289">
         <v>366</v>
@@ -18269,7 +18286,7 @@
         <v>1357</v>
       </c>
       <c r="C290" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D290">
         <v>366</v>
@@ -18289,7 +18306,7 @@
         <v>1317</v>
       </c>
       <c r="C291" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D291">
         <v>365</v>
@@ -18309,7 +18326,7 @@
         <v>1316</v>
       </c>
       <c r="C292" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D292">
         <v>365</v>
@@ -18329,7 +18346,7 @@
         <v>1314</v>
       </c>
       <c r="C293" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D293">
         <v>365</v>
@@ -18349,7 +18366,7 @@
         <v>1407</v>
       </c>
       <c r="C294" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D294">
         <v>368</v>
@@ -18369,7 +18386,7 @@
         <v>1313</v>
       </c>
       <c r="C295" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D295">
         <v>365</v>
@@ -18389,7 +18406,7 @@
         <v>1242</v>
       </c>
       <c r="C296" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D296">
         <v>364</v>
@@ -18409,7 +18426,7 @@
         <v>1217</v>
       </c>
       <c r="C297" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D297">
         <v>363</v>
@@ -18429,7 +18446,7 @@
         <v>1226</v>
       </c>
       <c r="C298" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D298">
         <v>363</v>
@@ -18449,7 +18466,7 @@
         <v>1218</v>
       </c>
       <c r="C299" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D299">
         <v>363</v>
@@ -18469,7 +18486,7 @@
         <v>1196</v>
       </c>
       <c r="C300" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D300">
         <v>362</v>
@@ -18489,7 +18506,7 @@
         <v>1157</v>
       </c>
       <c r="C301" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D301">
         <v>361</v>
@@ -18509,7 +18526,7 @@
         <v>1160</v>
       </c>
       <c r="C302" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D302">
         <v>361</v>
@@ -18529,7 +18546,7 @@
         <v>1154</v>
       </c>
       <c r="C303" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D303">
         <v>360</v>
@@ -18549,7 +18566,7 @@
         <v>1153</v>
       </c>
       <c r="C304" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D304">
         <v>360</v>
@@ -18569,7 +18586,7 @@
         <v>1152</v>
       </c>
       <c r="C305" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D305">
         <v>360</v>
@@ -18589,7 +18606,7 @@
         <v>1140</v>
       </c>
       <c r="C306" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D306">
         <v>359</v>
@@ -18609,7 +18626,7 @@
         <v>1018</v>
       </c>
       <c r="C307" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D307">
         <v>358</v>
@@ -18629,7 +18646,7 @@
         <v>1017</v>
       </c>
       <c r="C308" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D308">
         <v>358</v>
@@ -18649,7 +18666,7 @@
         <v>994</v>
       </c>
       <c r="C309" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D309">
         <v>357</v>
@@ -18669,7 +18686,7 @@
         <v>1241</v>
       </c>
       <c r="C310" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D310">
         <v>364</v>
@@ -18689,7 +18706,7 @@
         <v>1417</v>
       </c>
       <c r="C311" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D311">
         <v>369</v>
@@ -18709,7 +18726,7 @@
         <v>1456</v>
       </c>
       <c r="C312" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D312">
         <v>370</v>
@@ -18729,7 +18746,7 @@
         <v>1458</v>
       </c>
       <c r="C313" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D313">
         <v>370</v>
@@ -18749,7 +18766,7 @@
         <v>7275</v>
       </c>
       <c r="C314" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D314">
         <v>414</v>
@@ -18769,7 +18786,7 @@
         <v>1684</v>
       </c>
       <c r="C315" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D315">
         <v>414</v>
@@ -18789,7 +18806,7 @@
         <v>7276</v>
       </c>
       <c r="C316" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D316">
         <v>414</v>
@@ -18809,7 +18826,7 @@
         <v>1683</v>
       </c>
       <c r="C317" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D317">
         <v>382</v>
@@ -18829,7 +18846,7 @@
         <v>1676</v>
       </c>
       <c r="C318" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D318">
         <v>382</v>
@@ -18849,7 +18866,7 @@
         <v>1679</v>
       </c>
       <c r="C319" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D319">
         <v>382</v>
@@ -18869,7 +18886,7 @@
         <v>1668</v>
       </c>
       <c r="C320" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D320">
         <v>380</v>
@@ -18889,7 +18906,7 @@
         <v>1643</v>
       </c>
       <c r="C321" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D321">
         <v>379</v>
@@ -18909,7 +18926,7 @@
         <v>1633</v>
       </c>
       <c r="C322" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D322">
         <v>379</v>
@@ -18929,7 +18946,7 @@
         <v>1615</v>
       </c>
       <c r="C323" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D323">
         <v>378</v>
@@ -18949,7 +18966,7 @@
         <v>1620</v>
       </c>
       <c r="C324" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D324">
         <v>378</v>
@@ -18969,7 +18986,7 @@
         <v>1621</v>
       </c>
       <c r="C325" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D325">
         <v>378</v>
@@ -18989,7 +19006,7 @@
         <v>1587</v>
       </c>
       <c r="C326" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D326">
         <v>377</v>
@@ -19009,7 +19026,7 @@
         <v>1586</v>
       </c>
       <c r="C327" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D327">
         <v>376</v>
@@ -19029,7 +19046,7 @@
         <v>1582</v>
       </c>
       <c r="C328" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D328">
         <v>376</v>
@@ -19049,7 +19066,7 @@
         <v>1579</v>
       </c>
       <c r="C329" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D329">
         <v>376</v>
@@ -19069,7 +19086,7 @@
         <v>1578</v>
       </c>
       <c r="C330" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D330">
         <v>376</v>
@@ -19089,7 +19106,7 @@
         <v>1457</v>
       </c>
       <c r="C331" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D331">
         <v>370</v>
@@ -19109,7 +19126,7 @@
         <v>1464</v>
       </c>
       <c r="C332" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D332">
         <v>371</v>
@@ -19129,7 +19146,7 @@
         <v>1499</v>
       </c>
       <c r="C333" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D333">
         <v>372</v>
@@ -19149,7 +19166,7 @@
         <v>1533</v>
       </c>
       <c r="C334" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D334">
         <v>373</v>
@@ -19169,7 +19186,7 @@
         <v>10148</v>
       </c>
       <c r="C335" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D335">
         <v>373</v>
@@ -19189,7 +19206,7 @@
         <v>1531</v>
       </c>
       <c r="C336" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D336">
         <v>373</v>
@@ -19209,7 +19226,7 @@
         <v>988</v>
       </c>
       <c r="C337" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D337">
         <v>356</v>
@@ -19229,7 +19246,7 @@
         <v>1558</v>
       </c>
       <c r="C338" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D338">
         <v>374</v>
@@ -19249,7 +19266,7 @@
         <v>1557</v>
       </c>
       <c r="C339" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D339">
         <v>374</v>
@@ -19269,7 +19286,7 @@
         <v>10257</v>
       </c>
       <c r="C340" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D340">
         <v>375</v>
@@ -19289,7 +19306,7 @@
         <v>1569</v>
       </c>
       <c r="C341" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D341">
         <v>375</v>
@@ -19309,7 +19326,7 @@
         <v>1583</v>
       </c>
       <c r="C342" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D342">
         <v>376</v>
@@ -19329,7 +19346,7 @@
         <v>1576</v>
       </c>
       <c r="C343" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D343">
         <v>376</v>
@@ -19349,7 +19366,7 @@
         <v>1577</v>
       </c>
       <c r="C344" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D344">
         <v>376</v>
@@ -19369,7 +19386,7 @@
         <v>1559</v>
       </c>
       <c r="C345" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D345">
         <v>374</v>
@@ -19389,7 +19406,7 @@
         <v>993</v>
       </c>
       <c r="C346" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D346">
         <v>356</v>
@@ -19409,7 +19426,7 @@
         <v>989</v>
       </c>
       <c r="C347" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D347">
         <v>356</v>
@@ -19429,7 +19446,7 @@
         <v>990</v>
       </c>
       <c r="C348" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D348">
         <v>356</v>
@@ -19449,7 +19466,7 @@
         <v>575</v>
       </c>
       <c r="C349" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D349">
         <v>402</v>
@@ -19469,7 +19486,7 @@
         <v>572</v>
       </c>
       <c r="C350" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D350">
         <v>401</v>
@@ -19489,7 +19506,7 @@
         <v>542</v>
       </c>
       <c r="C351" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D351">
         <v>400</v>
@@ -19509,7 +19526,7 @@
         <v>537</v>
       </c>
       <c r="C352" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D352">
         <v>399</v>
@@ -19529,7 +19546,7 @@
         <v>534</v>
       </c>
       <c r="C353" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D353">
         <v>399</v>
@@ -19549,7 +19566,7 @@
         <v>443</v>
       </c>
       <c r="C354" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D354">
         <v>398</v>
@@ -19569,7 +19586,7 @@
         <v>6194</v>
       </c>
       <c r="C355" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D355">
         <v>398</v>
@@ -19589,7 +19606,7 @@
         <v>424</v>
       </c>
       <c r="C356" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D356">
         <v>397</v>
@@ -19609,7 +19626,7 @@
         <v>420</v>
       </c>
       <c r="C357" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D357">
         <v>397</v>
@@ -19629,7 +19646,7 @@
         <v>411</v>
       </c>
       <c r="C358" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D358">
         <v>396</v>
@@ -19649,7 +19666,7 @@
         <v>413</v>
       </c>
       <c r="C359" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D359">
         <v>396</v>
@@ -19669,7 +19686,7 @@
         <v>387</v>
       </c>
       <c r="C360" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D360">
         <v>395</v>
@@ -19689,7 +19706,7 @@
         <v>302</v>
       </c>
       <c r="C361" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D361">
         <v>394</v>
@@ -19709,7 +19726,7 @@
         <v>264</v>
       </c>
       <c r="C362" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D362">
         <v>393</v>
@@ -19729,7 +19746,7 @@
         <v>265</v>
       </c>
       <c r="C363" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D363">
         <v>393</v>
@@ -19749,7 +19766,7 @@
         <v>263</v>
       </c>
       <c r="C364" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D364">
         <v>393</v>
@@ -19769,7 +19786,7 @@
         <v>249</v>
       </c>
       <c r="C365" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D365">
         <v>392</v>
@@ -19789,7 +19806,7 @@
         <v>26</v>
       </c>
       <c r="C366" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D366">
         <v>385</v>
@@ -19809,7 +19826,7 @@
         <v>28</v>
       </c>
       <c r="C367" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D367">
         <v>385</v>
@@ -19829,7 +19846,7 @@
         <v>27</v>
       </c>
       <c r="C368" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D368">
         <v>385</v>
@@ -19849,7 +19866,7 @@
         <v>35</v>
       </c>
       <c r="C369" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D369">
         <v>386</v>
@@ -19869,7 +19886,7 @@
         <v>5740</v>
       </c>
       <c r="C370" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D370">
         <v>387</v>
@@ -19889,7 +19906,7 @@
         <v>89</v>
       </c>
       <c r="C371" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D371">
         <v>388</v>
@@ -19909,7 +19926,7 @@
         <v>593</v>
       </c>
       <c r="C372" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D372">
         <v>403</v>
@@ -19929,7 +19946,7 @@
         <v>88</v>
       </c>
       <c r="C373" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D373">
         <v>388</v>
@@ -19949,7 +19966,7 @@
         <v>85</v>
       </c>
       <c r="C374" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D374">
         <v>388</v>
@@ -19969,7 +19986,7 @@
         <v>203</v>
       </c>
       <c r="C375" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D375">
         <v>389</v>
@@ -19989,7 +20006,7 @@
         <v>213</v>
       </c>
       <c r="C376" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D376">
         <v>390</v>
@@ -20009,7 +20026,7 @@
         <v>242</v>
       </c>
       <c r="C377" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D377">
         <v>391</v>
@@ -20029,7 +20046,7 @@
         <v>252</v>
       </c>
       <c r="C378" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D378">
         <v>392</v>
@@ -20049,7 +20066,7 @@
         <v>253</v>
       </c>
       <c r="C379" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D379">
         <v>392</v>
@@ -20069,7 +20086,7 @@
         <v>84</v>
       </c>
       <c r="C380" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D380">
         <v>388</v>
@@ -20089,7 +20106,7 @@
         <v>1685</v>
       </c>
       <c r="C381" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D381">
         <v>414</v>
@@ -20109,7 +20126,7 @@
         <v>596</v>
       </c>
       <c r="C382" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D382">
         <v>403</v>
@@ -20129,7 +20146,7 @@
         <v>625</v>
       </c>
       <c r="C383" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D383">
         <v>405</v>
@@ -20149,7 +20166,7 @@
         <v>992</v>
       </c>
       <c r="C384" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D384">
         <v>356</v>
@@ -20169,7 +20186,7 @@
         <v>9388</v>
       </c>
       <c r="C385" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D385">
         <v>355</v>
@@ -20189,7 +20206,7 @@
         <v>895</v>
       </c>
       <c r="C386" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D386">
         <v>355</v>
@@ -20209,7 +20226,7 @@
         <v>900</v>
       </c>
       <c r="C387" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D387">
         <v>355</v>
@@ -20229,7 +20246,7 @@
         <v>868</v>
       </c>
       <c r="C388" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D388">
         <v>354</v>
@@ -20249,7 +20266,7 @@
         <v>849</v>
       </c>
       <c r="C389" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D389">
         <v>381</v>
@@ -20269,7 +20286,7 @@
         <v>848</v>
       </c>
       <c r="C390" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D390">
         <v>381</v>
@@ -20289,7 +20306,7 @@
         <v>842</v>
       </c>
       <c r="C391" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D391">
         <v>383</v>
@@ -20309,7 +20326,7 @@
         <v>844</v>
       </c>
       <c r="C392" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D392">
         <v>383</v>
@@ -20329,7 +20346,7 @@
         <v>8508</v>
       </c>
       <c r="C393" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D393">
         <v>383</v>
@@ -20349,7 +20366,7 @@
         <v>843</v>
       </c>
       <c r="C394" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D394">
         <v>383</v>
@@ -20369,7 +20386,7 @@
         <v>828</v>
       </c>
       <c r="C395" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D395">
         <v>412</v>
@@ -20389,7 +20406,7 @@
         <v>831</v>
       </c>
       <c r="C396" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D396">
         <v>412</v>
@@ -20409,7 +20426,7 @@
         <v>830</v>
       </c>
       <c r="C397" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D397">
         <v>412</v>
@@ -20429,7 +20446,7 @@
         <v>823</v>
       </c>
       <c r="C398" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D398">
         <v>412</v>
@@ -20449,7 +20466,7 @@
         <v>821</v>
       </c>
       <c r="C399" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D399">
         <v>412</v>
@@ -20469,7 +20486,7 @@
         <v>820</v>
       </c>
       <c r="C400" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D400">
         <v>412</v>
@@ -20489,7 +20506,7 @@
         <v>684</v>
       </c>
       <c r="C401" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D401">
         <v>406</v>
@@ -20509,7 +20526,7 @@
         <v>701</v>
       </c>
       <c r="C402" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D402">
         <v>407</v>
@@ -20529,7 +20546,7 @@
         <v>760</v>
       </c>
       <c r="C403" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D403">
         <v>408</v>
@@ -20549,7 +20566,7 @@
         <v>759</v>
       </c>
       <c r="C404" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D404">
         <v>408</v>
@@ -20569,7 +20586,7 @@
         <v>762</v>
       </c>
       <c r="C405" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D405">
         <v>409</v>
@@ -20589,7 +20606,7 @@
         <v>5881</v>
       </c>
       <c r="C406" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D406">
         <v>410</v>
@@ -20609,7 +20626,7 @@
         <v>614</v>
       </c>
       <c r="C407" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D407">
         <v>404</v>
@@ -20629,7 +20646,7 @@
         <v>5885</v>
       </c>
       <c r="C408" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D408">
         <v>410</v>
@@ -20649,7 +20666,7 @@
         <v>797</v>
       </c>
       <c r="C409" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D409">
         <v>410</v>
@@ -20669,7 +20686,7 @@
         <v>795</v>
       </c>
       <c r="C410" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D410">
         <v>410</v>
@@ -20689,7 +20706,7 @@
         <v>808</v>
       </c>
       <c r="C411" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D411">
         <v>411</v>
@@ -20709,7 +20726,7 @@
         <v>807</v>
       </c>
       <c r="C412" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D412">
         <v>411</v>
@@ -20729,7 +20746,7 @@
         <v>806</v>
       </c>
       <c r="C413" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D413">
         <v>411</v>
@@ -20749,7 +20766,7 @@
         <v>819</v>
       </c>
       <c r="C414" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D414">
         <v>384</v>
@@ -20769,7 +20786,7 @@
         <v>798</v>
       </c>
       <c r="C415" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D415">
         <v>410</v>
@@ -20789,7 +20806,7 @@
         <v>8578</v>
       </c>
       <c r="C416" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D416">
         <v>351</v>
@@ -20809,7 +20826,7 @@
         <v>6869</v>
       </c>
       <c r="C417" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D417">
         <v>444</v>
@@ -20829,7 +20846,7 @@
         <v>9516</v>
       </c>
       <c r="C418" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D418">
         <v>415</v>
@@ -20849,7 +20866,7 @@
         <v>3700</v>
       </c>
       <c r="C419" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D419">
         <v>429</v>
@@ -20869,7 +20886,7 @@
         <v>3550</v>
       </c>
       <c r="C420" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D420">
         <v>428</v>
@@ -20889,7 +20906,7 @@
         <v>3420</v>
       </c>
       <c r="C421" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D421">
         <v>427</v>
@@ -20909,7 +20926,7 @@
         <v>3394</v>
       </c>
       <c r="C422" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D422">
         <v>426</v>
@@ -20929,7 +20946,7 @@
         <v>3399</v>
       </c>
       <c r="C423" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D423">
         <v>426</v>
@@ -20949,7 +20966,7 @@
         <v>3351</v>
       </c>
       <c r="C424" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D424">
         <v>425</v>
@@ -20969,7 +20986,7 @@
         <v>3350</v>
       </c>
       <c r="C425" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D425">
         <v>425</v>
@@ -20989,7 +21006,7 @@
         <v>7348</v>
       </c>
       <c r="C426" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D426">
         <v>424</v>
@@ -21009,7 +21026,7 @@
         <v>7351</v>
       </c>
       <c r="C427" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D427">
         <v>424</v>
@@ -21029,7 +21046,7 @@
         <v>7352</v>
       </c>
       <c r="C428" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D428">
         <v>424</v>
@@ -21049,7 +21066,7 @@
         <v>10245</v>
       </c>
       <c r="C429" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D429">
         <v>424</v>
@@ -21069,7 +21086,7 @@
         <v>3140</v>
       </c>
       <c r="C430" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D430">
         <v>423</v>
@@ -21089,7 +21106,7 @@
         <v>3010</v>
       </c>
       <c r="C431" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D431">
         <v>422</v>
@@ -21109,7 +21126,7 @@
         <v>6245</v>
       </c>
       <c r="C432" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D432">
         <v>421</v>
@@ -21129,7 +21146,7 @@
         <v>3701</v>
       </c>
       <c r="C433" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D433">
         <v>429</v>
@@ -21149,7 +21166,7 @@
         <v>2970</v>
       </c>
       <c r="C434" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D434">
         <v>420</v>
@@ -21169,7 +21186,7 @@
         <v>2945</v>
       </c>
       <c r="C435" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D435">
         <v>419</v>
@@ -21189,7 +21206,7 @@
         <v>2946</v>
       </c>
       <c r="C436" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D436">
         <v>419</v>
@@ -21209,7 +21226,7 @@
         <v>2947</v>
       </c>
       <c r="C437" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D437">
         <v>419</v>
@@ -21229,7 +21246,7 @@
         <v>2948</v>
       </c>
       <c r="C438" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D438">
         <v>419</v>
@@ -21249,7 +21266,7 @@
         <v>2933</v>
       </c>
       <c r="C439" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D439">
         <v>418</v>
@@ -21269,7 +21286,7 @@
         <v>2909</v>
       </c>
       <c r="C440" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D440">
         <v>417</v>
@@ -21289,7 +21306,7 @@
         <v>2906</v>
       </c>
       <c r="C441" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D441">
         <v>417</v>
@@ -21309,7 +21326,7 @@
         <v>2915</v>
       </c>
       <c r="C442" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D442">
         <v>417</v>
@@ -21329,7 +21346,7 @@
         <v>2908</v>
       </c>
       <c r="C443" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D443">
         <v>417</v>
@@ -21349,7 +21366,7 @@
         <v>2902</v>
       </c>
       <c r="C444" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D444">
         <v>417</v>
@@ -21369,7 +21386,7 @@
         <v>5674</v>
       </c>
       <c r="C445" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D445">
         <v>416</v>
@@ -21389,7 +21406,7 @@
         <v>2900</v>
       </c>
       <c r="C446" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D446">
         <v>416</v>
@@ -21409,7 +21426,7 @@
         <v>5672</v>
       </c>
       <c r="C447" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D447">
         <v>416</v>
@@ -21429,7 +21446,7 @@
         <v>5673</v>
       </c>
       <c r="C448" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D448">
         <v>416</v>
@@ -21449,7 +21466,7 @@
         <v>5872</v>
       </c>
       <c r="C449" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D449">
         <v>419</v>
@@ -21469,7 +21486,7 @@
         <v>3702</v>
       </c>
       <c r="C450" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D450">
         <v>429</v>
@@ -21489,7 +21506,7 @@
         <v>6680</v>
       </c>
       <c r="C451" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D451">
         <v>429</v>
@@ -21509,7 +21526,7 @@
         <v>3703</v>
       </c>
       <c r="C452" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D452">
         <v>429</v>
@@ -21529,7 +21546,7 @@
         <v>4758</v>
       </c>
       <c r="C453" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D453">
         <v>441</v>
@@ -21549,7 +21566,7 @@
         <v>9270</v>
       </c>
       <c r="C454" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D454">
         <v>441</v>
@@ -21569,7 +21586,7 @@
         <v>4754</v>
       </c>
       <c r="C455" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D455">
         <v>441</v>
@@ -21589,7 +21606,7 @@
         <v>4760</v>
       </c>
       <c r="C456" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D456">
         <v>441</v>
@@ -21609,7 +21626,7 @@
         <v>4664</v>
       </c>
       <c r="C457" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D457">
         <v>440</v>
@@ -21629,7 +21646,7 @@
         <v>4483</v>
       </c>
       <c r="C458" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D458">
         <v>439</v>
@@ -21649,7 +21666,7 @@
         <v>4352</v>
       </c>
       <c r="C459" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D459">
         <v>438</v>
@@ -21669,7 +21686,7 @@
         <v>6357</v>
       </c>
       <c r="C460" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D460">
         <v>438</v>
@@ -21689,7 +21706,7 @@
         <v>4351</v>
       </c>
       <c r="C461" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D461">
         <v>438</v>
@@ -21709,7 +21726,7 @@
         <v>4319</v>
       </c>
       <c r="C462" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D462">
         <v>437</v>
@@ -21729,7 +21746,7 @@
         <v>4318</v>
       </c>
       <c r="C463" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D463">
         <v>437</v>
@@ -21749,7 +21766,7 @@
         <v>4316</v>
       </c>
       <c r="C464" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D464">
         <v>437</v>
@@ -21769,7 +21786,7 @@
         <v>4315</v>
       </c>
       <c r="C465" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D465">
         <v>437</v>
@@ -21789,7 +21806,7 @@
         <v>4314</v>
       </c>
       <c r="C466" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D466">
         <v>437</v>
@@ -21809,7 +21826,7 @@
         <v>7762</v>
       </c>
       <c r="C467" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D467">
         <v>436</v>
@@ -21829,7 +21846,7 @@
         <v>4013</v>
       </c>
       <c r="C468" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D468">
         <v>435</v>
@@ -21849,7 +21866,7 @@
         <v>4008</v>
       </c>
       <c r="C469" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D469">
         <v>435</v>
@@ -21869,7 +21886,7 @@
         <v>3811</v>
       </c>
       <c r="C470" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D470">
         <v>430</v>
@@ -21889,7 +21906,7 @@
         <v>3827</v>
       </c>
       <c r="C471" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D471">
         <v>431</v>
@@ -21909,7 +21926,7 @@
         <v>3826</v>
       </c>
       <c r="C472" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D472">
         <v>431</v>
@@ -21929,7 +21946,7 @@
         <v>3877</v>
       </c>
       <c r="C473" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D473">
         <v>432</v>
@@ -21949,7 +21966,7 @@
         <v>3885</v>
       </c>
       <c r="C474" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D474">
         <v>432</v>
@@ -21969,7 +21986,7 @@
         <v>5873</v>
       </c>
       <c r="C475" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D475">
         <v>433</v>
@@ -21989,7 +22006,7 @@
         <v>2899</v>
       </c>
       <c r="C476" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D476">
         <v>416</v>
@@ -22009,7 +22026,7 @@
         <v>3934</v>
       </c>
       <c r="C477" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D477">
         <v>433</v>
@@ -22029,7 +22046,7 @@
         <v>3931</v>
       </c>
       <c r="C478" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D478">
         <v>433</v>
@@ -22049,7 +22066,7 @@
         <v>3956</v>
       </c>
       <c r="C479" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D479">
         <v>434</v>
@@ -22069,7 +22086,7 @@
         <v>3953</v>
       </c>
       <c r="C480" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D480">
         <v>434</v>
@@ -22089,7 +22106,7 @@
         <v>6167</v>
       </c>
       <c r="C481" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D481">
         <v>434</v>
@@ -22109,7 +22126,7 @@
         <v>4012</v>
       </c>
       <c r="C482" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D482">
         <v>435</v>
@@ -22129,7 +22146,7 @@
         <v>4009</v>
       </c>
       <c r="C483" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D483">
         <v>435</v>
@@ -22149,7 +22166,7 @@
         <v>3937</v>
       </c>
       <c r="C484" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D484">
         <v>433</v>
@@ -22169,7 +22186,7 @@
         <v>2892</v>
       </c>
       <c r="C485" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D485">
         <v>416</v>
@@ -22189,7 +22206,7 @@
         <v>2836</v>
       </c>
       <c r="C486" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D486">
         <v>443</v>
@@ -22209,7 +22226,7 @@
         <v>2721</v>
       </c>
       <c r="C487" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D487">
         <v>445</v>
@@ -22229,7 +22246,7 @@
         <v>2311</v>
       </c>
       <c r="C488" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D488">
         <v>462</v>
@@ -22249,7 +22266,7 @@
         <v>2304</v>
       </c>
       <c r="C489" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D489">
         <v>462</v>
@@ -22269,7 +22286,7 @@
         <v>2261</v>
       </c>
       <c r="C490" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D490">
         <v>461</v>
@@ -22289,7 +22306,7 @@
         <v>2251</v>
       </c>
       <c r="C491" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D491">
         <v>461</v>
@@ -22309,7 +22326,7 @@
         <v>2127</v>
       </c>
       <c r="C492" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D492">
         <v>460</v>
@@ -22329,7 +22346,7 @@
         <v>2122</v>
       </c>
       <c r="C493" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D493">
         <v>460</v>
@@ -22349,7 +22366,7 @@
         <v>2123</v>
       </c>
       <c r="C494" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D494">
         <v>460</v>
@@ -22369,7 +22386,7 @@
         <v>2042</v>
       </c>
       <c r="C495" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D495">
         <v>459</v>
@@ -22389,7 +22406,7 @@
         <v>2047</v>
       </c>
       <c r="C496" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D496">
         <v>459</v>
@@ -22409,7 +22426,7 @@
         <v>2041</v>
       </c>
       <c r="C497" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D497">
         <v>459</v>
@@ -22429,7 +22446,7 @@
         <v>2040</v>
       </c>
       <c r="C498" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D498">
         <v>459</v>
@@ -22449,7 +22466,7 @@
         <v>2031</v>
       </c>
       <c r="C499" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D499">
         <v>458</v>
@@ -22469,7 +22486,7 @@
         <v>2020</v>
       </c>
       <c r="C500" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D500">
         <v>457</v>
@@ -22489,7 +22506,7 @@
         <v>2025</v>
       </c>
       <c r="C501" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D501">
         <v>457</v>
@@ -22509,7 +22526,7 @@
         <v>1996</v>
       </c>
       <c r="C502" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D502">
         <v>456</v>
@@ -22529,7 +22546,7 @@
         <v>1993</v>
       </c>
       <c r="C503" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D503">
         <v>456</v>
@@ -22549,7 +22566,7 @@
         <v>1975</v>
       </c>
       <c r="C504" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D504">
         <v>455</v>
@@ -22569,7 +22586,7 @@
         <v>1810</v>
       </c>
       <c r="C505" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D505">
         <v>447</v>
@@ -22589,7 +22606,7 @@
         <v>1818</v>
       </c>
       <c r="C506" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D506">
         <v>448</v>
@@ -22609,7 +22626,7 @@
         <v>1841</v>
       </c>
       <c r="C507" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D507">
         <v>449</v>
@@ -22629,7 +22646,7 @@
         <v>1872</v>
       </c>
       <c r="C508" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D508">
         <v>450</v>
@@ -22649,7 +22666,7 @@
         <v>1889</v>
       </c>
       <c r="C509" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D509">
         <v>451</v>
@@ -22669,7 +22686,7 @@
         <v>1882</v>
       </c>
       <c r="C510" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D510">
         <v>451</v>
@@ -22689,7 +22706,7 @@
         <v>2306</v>
       </c>
       <c r="C511" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D511">
         <v>462</v>
@@ -22709,7 +22726,7 @@
         <v>1881</v>
       </c>
       <c r="C512" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D512">
         <v>451</v>
@@ -22729,7 +22746,7 @@
         <v>1949</v>
       </c>
       <c r="C513" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D513">
         <v>453</v>
@@ -22749,7 +22766,7 @@
         <v>1958</v>
       </c>
       <c r="C514" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D514">
         <v>454</v>
@@ -22769,7 +22786,7 @@
         <v>1950</v>
       </c>
       <c r="C515" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D515">
         <v>454</v>
@@ -22789,7 +22806,7 @@
         <v>6315</v>
       </c>
       <c r="C516" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D516">
         <v>454</v>
@@ -22809,7 +22826,7 @@
         <v>1954</v>
       </c>
       <c r="C517" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D517">
         <v>454</v>
@@ -22829,7 +22846,7 @@
         <v>1953</v>
       </c>
       <c r="C518" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D518">
         <v>454</v>
@@ -22849,7 +22866,7 @@
         <v>1932</v>
       </c>
       <c r="C519" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D519">
         <v>452</v>
@@ -22869,7 +22886,7 @@
         <v>1792</v>
       </c>
       <c r="C520" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D520">
         <v>415</v>
@@ -22889,7 +22906,7 @@
         <v>2305</v>
       </c>
       <c r="C521" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D521">
         <v>462</v>
@@ -22909,7 +22926,7 @@
         <v>6374</v>
       </c>
       <c r="C522" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D522">
         <v>462</v>
@@ -22929,7 +22946,7 @@
         <v>2716</v>
       </c>
       <c r="C523" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D523">
         <v>445</v>
@@ -22949,7 +22966,7 @@
         <v>2605</v>
       </c>
       <c r="C524" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D524">
         <v>474</v>
@@ -22969,7 +22986,7 @@
         <v>2604</v>
       </c>
       <c r="C525" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D525">
         <v>474</v>
@@ -22989,7 +23006,7 @@
         <v>6115</v>
       </c>
       <c r="C526" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D526">
         <v>446</v>
@@ -23009,7 +23026,7 @@
         <v>6113</v>
       </c>
       <c r="C527" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D527">
         <v>446</v>
@@ -23029,7 +23046,7 @@
         <v>2540</v>
       </c>
       <c r="C528" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D528">
         <v>473</v>
@@ -23049,7 +23066,7 @@
         <v>2542</v>
       </c>
       <c r="C529" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D529">
         <v>473</v>
@@ -23069,7 +23086,7 @@
         <v>2543</v>
       </c>
       <c r="C530" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D530">
         <v>473</v>
@@ -23089,7 +23106,7 @@
         <v>2541</v>
       </c>
       <c r="C531" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D531">
         <v>473</v>
@@ -23109,7 +23126,7 @@
         <v>2510</v>
       </c>
       <c r="C532" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D532">
         <v>472</v>
@@ -23129,7 +23146,7 @@
         <v>2494</v>
       </c>
       <c r="C533" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D533">
         <v>471</v>
@@ -23149,7 +23166,7 @@
         <v>2492</v>
       </c>
       <c r="C534" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D534">
         <v>471</v>
@@ -23169,7 +23186,7 @@
         <v>2493</v>
       </c>
       <c r="C535" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D535">
         <v>471</v>
@@ -23189,7 +23206,7 @@
         <v>2482</v>
       </c>
       <c r="C536" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D536">
         <v>470</v>
@@ -23209,7 +23226,7 @@
         <v>2481</v>
       </c>
       <c r="C537" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D537">
         <v>470</v>
@@ -23229,7 +23246,7 @@
         <v>2480</v>
       </c>
       <c r="C538" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D538">
         <v>470</v>
@@ -23249,7 +23266,7 @@
         <v>2455</v>
       </c>
       <c r="C539" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D539">
         <v>469</v>
@@ -23269,7 +23286,7 @@
         <v>2312</v>
       </c>
       <c r="C540" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D540">
         <v>462</v>
@@ -23289,7 +23306,7 @@
         <v>2326</v>
       </c>
       <c r="C541" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D541">
         <v>463</v>
@@ -23309,7 +23326,7 @@
         <v>2353</v>
       </c>
       <c r="C542" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D542">
         <v>464</v>
@@ -23329,7 +23346,7 @@
         <v>2367</v>
       </c>
       <c r="C543" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D543">
         <v>465</v>
@@ -23349,7 +23366,7 @@
         <v>2372</v>
       </c>
       <c r="C544" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D544">
         <v>466</v>
@@ -23369,7 +23386,7 @@
         <v>2383</v>
       </c>
       <c r="C545" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D545">
         <v>466</v>
@@ -23389,7 +23406,7 @@
         <v>2313</v>
       </c>
       <c r="C546" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D546">
         <v>462</v>
@@ -23409,7 +23426,7 @@
         <v>2373</v>
       </c>
       <c r="C547" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D547">
         <v>466</v>
@@ -23429,7 +23446,7 @@
         <v>2435</v>
       </c>
       <c r="C548" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D548">
         <v>467</v>
@@ -23449,7 +23466,7 @@
         <v>2446</v>
       </c>
       <c r="C549" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D549">
         <v>468</v>
@@ -23469,7 +23486,7 @@
         <v>2456</v>
       </c>
       <c r="C550" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D550">
         <v>469</v>
@@ -23489,7 +23506,7 @@
         <v>2458</v>
       </c>
       <c r="C551" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D551">
         <v>469</v>
@@ -23509,7 +23526,7 @@
         <v>2457</v>
       </c>
       <c r="C552" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D552">
         <v>469</v>
@@ -23529,7 +23546,7 @@
         <v>2454</v>
       </c>
       <c r="C553" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D553">
         <v>469</v>
@@ -23549,7 +23566,7 @@
         <v>6040</v>
       </c>
       <c r="C554" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D554">
         <v>467</v>
@@ -23569,7 +23586,7 @@
         <v>9480</v>
       </c>
       <c r="C555" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D555">
         <v>475</v>
@@ -23977,13 +23994,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -23991,13 +24008,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -24005,13 +24022,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
